--- a/table.xlsx
+++ b/table.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t xml:space="preserve">artyzh@inbox.ru</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve">s25e_trishin@179.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
   </si>
 </sst>
 </file>
@@ -163,10 +166,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -177,20 +180,23 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>5</v>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -208,22 +214,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -237,25 +234,45 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="artyzh@inbox.ru"/>
+    <hyperlink ref="G1" r:id="rId1" display="artyzh@inbox.ru"/>
     <hyperlink ref="A2" r:id="rId2" display="s25e_jdankin@179.ru"/>
-    <hyperlink ref="A3" r:id="rId3" display="s25e_zaborov@179.ru"/>
-    <hyperlink ref="A4" r:id="rId4" display="s25e_uryash@179.ru"/>
-    <hyperlink ref="A5" r:id="rId5" display="s25e_trishin@179.ru"/>
+    <hyperlink ref="A4" r:id="rId3" display="s25e_zaborov@179.ru"/>
+    <hyperlink ref="A5" r:id="rId4" display="s25e_uryash@179.ru"/>
+    <hyperlink ref="A6" r:id="rId5" display="s25e_trishin@179.ru"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
